--- a/state_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
+++ b/state_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +732,7 @@
         <v>0.00542</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0138616997261882</v>
+        <v>0.0133981016431697</v>
       </c>
       <c r="H4" t="n">
         <v>0.0849448261852431</v>
@@ -743,7 +743,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.00281</v>
+        <v>0.00181</v>
       </c>
       <c r="M4" t="n">
         <v>0.02563</v>
@@ -813,7 +813,7 @@
         <v>0.00542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0138616997261882</v>
+        <v>0.0133981016431697</v>
       </c>
       <c r="H5" t="n">
         <v>0.0849448261852431</v>
@@ -824,7 +824,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.00281</v>
+        <v>0.00181</v>
       </c>
       <c r="M5" t="n">
         <v>0.02563</v>
@@ -894,7 +894,7 @@
         <v>0.551</v>
       </c>
       <c r="G6" t="n">
-        <v>0.672256236594507</v>
+        <v>0.672624043048015</v>
       </c>
       <c r="H6" t="n">
         <v>1.98</v>
@@ -905,7 +905,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.03911</v>
+        <v>0.04225</v>
       </c>
       <c r="M6" t="n">
         <v>1.3475</v>
@@ -975,7 +975,7 @@
         <v>0.551</v>
       </c>
       <c r="G7" t="n">
-        <v>0.672256236594507</v>
+        <v>0.672624043048015</v>
       </c>
       <c r="H7" t="n">
         <v>1.98</v>
@@ -986,7 +986,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.03911</v>
+        <v>0.04225</v>
       </c>
       <c r="M7" t="n">
         <v>1.3475</v>
@@ -1052,7 +1052,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.725369506978605</v>
+        <v>0.725547730102311</v>
       </c>
       <c r="H8" t="n">
         <v>2.76</v>
@@ -1129,7 +1129,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.725369506978605</v>
+        <v>0.725547730102311</v>
       </c>
       <c r="H9" t="n">
         <v>2.76</v>
@@ -2020,7 +2020,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>0.018646331422007</v>
+        <v>0.0182368548944615</v>
       </c>
       <c r="H20" t="n">
         <v>0.191963549785133</v>
@@ -2031,7 +2031,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.00489</v>
+        <v>0.00485</v>
       </c>
       <c r="M20" t="n">
         <v>0.02985</v>
@@ -2101,7 +2101,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>0.018646331422007</v>
+        <v>0.0182368548944615</v>
       </c>
       <c r="H21" t="n">
         <v>0.191963549785133</v>
@@ -2112,7 +2112,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.00489</v>
+        <v>0.00485</v>
       </c>
       <c r="M21" t="n">
         <v>0.02985</v>
@@ -2182,7 +2182,7 @@
         <v>0.551</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7021363601438</v>
+        <v>0.702254571293116</v>
       </c>
       <c r="H22" t="n">
         <v>1.98</v>
@@ -2263,7 +2263,7 @@
         <v>0.551</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7021363601438</v>
+        <v>0.702254571293116</v>
       </c>
       <c r="H23" t="n">
         <v>1.98</v>
@@ -2776,6 +2776,1294 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0273962264150943</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.11925</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.02449</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0551</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0273962264150943</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.11925</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.02449</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0551</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>120</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1048.60228962081</v>
+      </c>
+      <c r="H32" t="n">
+        <v>19935.0336489237</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4112.25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>20.7547169811321</v>
+      </c>
+      <c r="K32" t="n">
+        <v>24.5283018867925</v>
+      </c>
+      <c r="L32" t="n">
+        <v>94</v>
+      </c>
+      <c r="M32" t="n">
+        <v>677.27</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2994.78</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>120</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1048.60228962081</v>
+      </c>
+      <c r="H33" t="n">
+        <v>19935.0336489237</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4112.25</v>
+      </c>
+      <c r="J33" t="n">
+        <v>20.7547169811321</v>
+      </c>
+      <c r="K33" t="n">
+        <v>24.5283018867925</v>
+      </c>
+      <c r="L33" t="n">
+        <v>94</v>
+      </c>
+      <c r="M33" t="n">
+        <v>677.27</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2994.78</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>120</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1048.60228962081</v>
+      </c>
+      <c r="H34" t="n">
+        <v>19935.0336489237</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4112.25</v>
+      </c>
+      <c r="J34" t="n">
+        <v>20.7547169811321</v>
+      </c>
+      <c r="K34" t="n">
+        <v>24.5283018867925</v>
+      </c>
+      <c r="L34" t="n">
+        <v>94</v>
+      </c>
+      <c r="M34" t="n">
+        <v>677.27</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2994.78</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>120</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1048.60228962081</v>
+      </c>
+      <c r="H35" t="n">
+        <v>19935.0336489237</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4112.25</v>
+      </c>
+      <c r="J35" t="n">
+        <v>20.7547169811321</v>
+      </c>
+      <c r="K35" t="n">
+        <v>24.5283018867925</v>
+      </c>
+      <c r="L35" t="n">
+        <v>94</v>
+      </c>
+      <c r="M35" t="n">
+        <v>677.27</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2994.78</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.01137</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0736703165436941</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.7508335155888</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.36227</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0.00685</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.04769</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.14058</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.01137</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0736703165436941</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.7508335155888</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.36227</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0.00685</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.04769</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.14058</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.784254571293116</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.9515</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.3798</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.7826</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.784254571293116</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.9515</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.3798</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.7826</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.939433962264151</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.7049</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.0508</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.939433962264151</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.7049</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.0508</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.81377358490566</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.4794</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.81377358490566</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.4794</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5016</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.13435</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.40884</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Koitiata at Beamish Rd</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H45" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5016</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.13435</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.40884</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1785275</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5558196</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
+++ b/state_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
@@ -2968,10 +2968,10 @@
         <v>120</v>
       </c>
       <c r="G32" t="n">
-        <v>1048.60228962081</v>
+        <v>731.424378014641</v>
       </c>
       <c r="H32" t="n">
-        <v>19935.0336489237</v>
+        <v>9819.513849093109</v>
       </c>
       <c r="I32" t="n">
         <v>4112.25</v>
@@ -3053,10 +3053,10 @@
         <v>120</v>
       </c>
       <c r="G33" t="n">
-        <v>1048.60228962081</v>
+        <v>731.424378014641</v>
       </c>
       <c r="H33" t="n">
-        <v>19935.0336489237</v>
+        <v>9819.513849093109</v>
       </c>
       <c r="I33" t="n">
         <v>4112.25</v>
@@ -3138,10 +3138,10 @@
         <v>120</v>
       </c>
       <c r="G34" t="n">
-        <v>1048.60228962081</v>
+        <v>731.424378014641</v>
       </c>
       <c r="H34" t="n">
-        <v>19935.0336489237</v>
+        <v>9819.513849093109</v>
       </c>
       <c r="I34" t="n">
         <v>4112.25</v>
@@ -3223,10 +3223,10 @@
         <v>120</v>
       </c>
       <c r="G35" t="n">
-        <v>1048.60228962081</v>
+        <v>731.424378014641</v>
       </c>
       <c r="H35" t="n">
-        <v>19935.0336489237</v>
+        <v>9819.513849093109</v>
       </c>
       <c r="I35" t="n">
         <v>4112.25</v>

--- a/state_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
+++ b/state_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="59">
   <si>
     <t>site name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +633,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>0.019</v>
@@ -645,7 +648,7 @@
         <v>0.04075</v>
       </c>
       <c r="L2">
-        <v>0.018</v>
+        <v>0.0175</v>
       </c>
       <c r="M2">
         <v>0.023</v>
@@ -660,19 +663,19 @@
         <v>5558196</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -689,7 +692,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>0.019</v>
@@ -704,7 +707,7 @@
         <v>0.04075</v>
       </c>
       <c r="L3">
-        <v>0.018</v>
+        <v>0.0175</v>
       </c>
       <c r="M3">
         <v>0.023</v>
@@ -719,19 +722,19 @@
         <v>5558196</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -748,13 +751,13 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>0.00542</v>
       </c>
       <c r="G4">
-        <v>0.0133981016431697</v>
+        <v>0.0132920933479427</v>
       </c>
       <c r="H4">
         <v>0.0849448261852431</v>
@@ -763,7 +766,7 @@
         <v>0.04868</v>
       </c>
       <c r="L4">
-        <v>0.00181</v>
+        <v>0.0015</v>
       </c>
       <c r="M4">
         <v>0.02563</v>
@@ -778,19 +781,19 @@
         <v>5558196</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -807,13 +810,13 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>0.00542</v>
       </c>
       <c r="G5">
-        <v>0.0133981016431697</v>
+        <v>0.0132920933479427</v>
       </c>
       <c r="H5">
         <v>0.0849448261852431</v>
@@ -822,7 +825,7 @@
         <v>0.04868</v>
       </c>
       <c r="L5">
-        <v>0.00181</v>
+        <v>0.0015</v>
       </c>
       <c r="M5">
         <v>0.02563</v>
@@ -837,19 +840,19 @@
         <v>5558196</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -866,13 +869,13 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>0.551</v>
       </c>
       <c r="G6">
-        <v>0.672624043048015</v>
+        <v>0.672743641784737</v>
       </c>
       <c r="H6">
         <v>1.98</v>
@@ -881,7 +884,7 @@
         <v>1.6425</v>
       </c>
       <c r="L6">
-        <v>0.04225</v>
+        <v>0.0975</v>
       </c>
       <c r="M6">
         <v>1.3475</v>
@@ -896,19 +899,19 @@
         <v>5558196</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -925,13 +928,13 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>0.551</v>
       </c>
       <c r="G7">
-        <v>0.672624043048015</v>
+        <v>0.672743641784737</v>
       </c>
       <c r="H7">
         <v>1.98</v>
@@ -940,7 +943,7 @@
         <v>1.6425</v>
       </c>
       <c r="L7">
-        <v>0.04225</v>
+        <v>0.0975</v>
       </c>
       <c r="M7">
         <v>1.3475</v>
@@ -955,19 +958,19 @@
         <v>5558196</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -981,13 +984,13 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>0.5600000000000001</v>
       </c>
       <c r="G8">
-        <v>0.725547730102311</v>
+        <v>0.725637108197064</v>
       </c>
       <c r="H8">
         <v>2.76</v>
@@ -996,7 +999,7 @@
         <v>1.7975</v>
       </c>
       <c r="L8">
-        <v>0.05</v>
+        <v>0.105</v>
       </c>
       <c r="M8">
         <v>1.3675</v>
@@ -1011,19 +1014,19 @@
         <v>5558196</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1037,13 +1040,13 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>0.5600000000000001</v>
       </c>
       <c r="G9">
-        <v>0.725547730102311</v>
+        <v>0.725637108197064</v>
       </c>
       <c r="H9">
         <v>2.76</v>
@@ -1052,7 +1055,7 @@
         <v>1.7975</v>
       </c>
       <c r="L9">
-        <v>0.05</v>
+        <v>0.105</v>
       </c>
       <c r="M9">
         <v>1.3675</v>
@@ -1067,19 +1070,19 @@
         <v>5558196</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1093,7 +1096,7 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10">
         <v>1.42</v>
@@ -1108,7 +1111,7 @@
         <v>3.1025</v>
       </c>
       <c r="L10">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="M10">
         <v>2.212</v>
@@ -1123,19 +1126,19 @@
         <v>5558196</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1149,7 +1152,7 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>1.42</v>
@@ -1164,7 +1167,7 @@
         <v>3.1025</v>
       </c>
       <c r="L11">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="M11">
         <v>2.212</v>
@@ -1179,19 +1182,19 @@
         <v>5558196</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1205,7 +1208,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>0.031</v>
@@ -1220,7 +1223,7 @@
         <v>0.469</v>
       </c>
       <c r="L12">
-        <v>0.021</v>
+        <v>0.0225</v>
       </c>
       <c r="M12">
         <v>0.06745</v>
@@ -1235,19 +1238,19 @@
         <v>5558196</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1261,7 +1264,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>0.031</v>
@@ -1276,7 +1279,7 @@
         <v>0.469</v>
       </c>
       <c r="L13">
-        <v>0.021</v>
+        <v>0.0225</v>
       </c>
       <c r="M13">
         <v>0.06745</v>
@@ -1291,19 +1294,19 @@
         <v>5558196</v>
       </c>
       <c r="Q13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1320,7 +1323,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>0.02</v>
@@ -1335,7 +1338,7 @@
         <v>0.07575</v>
       </c>
       <c r="L14">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
       <c r="M14">
         <v>0.023</v>
@@ -1350,19 +1353,19 @@
         <v>5558196</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1379,7 +1382,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>0.02</v>
@@ -1394,7 +1397,7 @@
         <v>0.07575</v>
       </c>
       <c r="L15">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
       <c r="M15">
         <v>0.023</v>
@@ -1409,19 +1412,19 @@
         <v>5558196</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1438,19 +1441,19 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>105</v>
       </c>
       <c r="G16">
-        <v>397.772727272727</v>
+        <v>397.790909090909</v>
       </c>
       <c r="H16">
         <v>4500</v>
       </c>
       <c r="I16">
-        <v>3032.9</v>
+        <v>3032.76</v>
       </c>
       <c r="J16">
         <v>13.6363636363636</v>
@@ -1462,7 +1465,7 @@
         <v>94</v>
       </c>
       <c r="M16">
-        <v>326.08</v>
+        <v>326.472</v>
       </c>
       <c r="N16">
         <v>1190.4</v>
@@ -1474,19 +1477,19 @@
         <v>5558196</v>
       </c>
       <c r="Q16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1503,19 +1506,19 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>105</v>
       </c>
       <c r="G17">
-        <v>397.772727272727</v>
+        <v>397.790909090909</v>
       </c>
       <c r="H17">
         <v>4500</v>
       </c>
       <c r="I17">
-        <v>3032.9</v>
+        <v>3032.76</v>
       </c>
       <c r="J17">
         <v>13.6363636363636</v>
@@ -1527,7 +1530,7 @@
         <v>94</v>
       </c>
       <c r="M17">
-        <v>326.08</v>
+        <v>326.472</v>
       </c>
       <c r="N17">
         <v>1190.4</v>
@@ -1539,19 +1542,19 @@
         <v>5558196</v>
       </c>
       <c r="Q17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1568,19 +1571,19 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>105</v>
       </c>
       <c r="G18">
-        <v>397.772727272727</v>
+        <v>397.790909090909</v>
       </c>
       <c r="H18">
         <v>4500</v>
       </c>
       <c r="I18">
-        <v>3032.9</v>
+        <v>3032.76</v>
       </c>
       <c r="J18">
         <v>13.6363636363636</v>
@@ -1592,7 +1595,7 @@
         <v>94</v>
       </c>
       <c r="M18">
-        <v>326.08</v>
+        <v>326.472</v>
       </c>
       <c r="N18">
         <v>1190.4</v>
@@ -1604,19 +1607,19 @@
         <v>5558196</v>
       </c>
       <c r="Q18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1633,19 +1636,19 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>105</v>
       </c>
       <c r="G19">
-        <v>397.772727272727</v>
+        <v>397.790909090909</v>
       </c>
       <c r="H19">
         <v>4500</v>
       </c>
       <c r="I19">
-        <v>3032.9</v>
+        <v>3032.76</v>
       </c>
       <c r="J19">
         <v>13.6363636363636</v>
@@ -1657,7 +1660,7 @@
         <v>94</v>
       </c>
       <c r="M19">
-        <v>326.08</v>
+        <v>326.472</v>
       </c>
       <c r="N19">
         <v>1190.4</v>
@@ -1669,19 +1672,19 @@
         <v>5558196</v>
       </c>
       <c r="Q19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1698,13 +1701,13 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>0.008999999999999999</v>
       </c>
       <c r="G20">
-        <v>0.0182368548944615</v>
+        <v>0.0181341864313692</v>
       </c>
       <c r="H20">
         <v>0.191963549785133</v>
@@ -1713,7 +1716,7 @@
         <v>0.06069</v>
       </c>
       <c r="L20">
-        <v>0.00485</v>
+        <v>0.00266</v>
       </c>
       <c r="M20">
         <v>0.02985</v>
@@ -1728,19 +1731,19 @@
         <v>5558196</v>
       </c>
       <c r="Q20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1757,13 +1760,13 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21">
         <v>0.008999999999999999</v>
       </c>
       <c r="G21">
-        <v>0.0182368548944615</v>
+        <v>0.0181341864313692</v>
       </c>
       <c r="H21">
         <v>0.191963549785133</v>
@@ -1772,7 +1775,7 @@
         <v>0.06069</v>
       </c>
       <c r="L21">
-        <v>0.00485</v>
+        <v>0.00266</v>
       </c>
       <c r="M21">
         <v>0.02985</v>
@@ -1787,19 +1790,19 @@
         <v>5558196</v>
       </c>
       <c r="Q21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1816,13 +1819,13 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>0.551</v>
       </c>
       <c r="G22">
-        <v>0.702254571293116</v>
+        <v>0.7022889478390471</v>
       </c>
       <c r="H22">
         <v>1.98</v>
@@ -1831,7 +1834,7 @@
         <v>1.7635</v>
       </c>
       <c r="L22">
-        <v>0.082</v>
+        <v>0.156</v>
       </c>
       <c r="M22">
         <v>1.3547</v>
@@ -1846,19 +1849,19 @@
         <v>5558196</v>
       </c>
       <c r="Q22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1875,13 +1878,13 @@
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>0.551</v>
       </c>
       <c r="G23">
-        <v>0.702254571293116</v>
+        <v>0.7022889478390471</v>
       </c>
       <c r="H23">
         <v>1.98</v>
@@ -1890,7 +1893,7 @@
         <v>1.7635</v>
       </c>
       <c r="L23">
-        <v>0.082</v>
+        <v>0.156</v>
       </c>
       <c r="M23">
         <v>1.3547</v>
@@ -1905,19 +1908,19 @@
         <v>5558196</v>
       </c>
       <c r="Q23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1931,7 +1934,7 @@
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>0.7</v>
@@ -1946,7 +1949,7 @@
         <v>1.8725</v>
       </c>
       <c r="L24">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="M24">
         <v>1.3845</v>
@@ -1961,19 +1964,19 @@
         <v>5558196</v>
       </c>
       <c r="Q24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1987,7 +1990,7 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>0.7</v>
@@ -2002,7 +2005,7 @@
         <v>1.8725</v>
       </c>
       <c r="L25">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="M25">
         <v>1.3845</v>
@@ -2017,19 +2020,19 @@
         <v>5558196</v>
       </c>
       <c r="Q25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2043,7 +2046,7 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26">
         <v>1.55</v>
@@ -2058,7 +2061,7 @@
         <v>2.6295</v>
       </c>
       <c r="L26">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="M26">
         <v>2.2049</v>
@@ -2073,19 +2076,19 @@
         <v>5558196</v>
       </c>
       <c r="Q26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2099,7 +2102,7 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27">
         <v>1.55</v>
@@ -2114,7 +2117,7 @@
         <v>2.6295</v>
       </c>
       <c r="L27">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="M27">
         <v>2.2049</v>
@@ -2129,19 +2132,19 @@
         <v>5558196</v>
       </c>
       <c r="Q27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2155,7 +2158,7 @@
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>0.038</v>
@@ -2170,7 +2173,7 @@
         <v>0.5468</v>
       </c>
       <c r="L28">
-        <v>0.0245</v>
+        <v>0.026</v>
       </c>
       <c r="M28">
         <v>0.10747</v>
@@ -2185,19 +2188,19 @@
         <v>5558196</v>
       </c>
       <c r="Q28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2211,7 +2214,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29">
         <v>0.038</v>
@@ -2226,7 +2229,7 @@
         <v>0.5468</v>
       </c>
       <c r="L29">
-        <v>0.0245</v>
+        <v>0.026</v>
       </c>
       <c r="M29">
         <v>0.10747</v>
@@ -2241,19 +2244,19 @@
         <v>5558196</v>
       </c>
       <c r="Q29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2270,7 +2273,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>0.021</v>
@@ -2300,19 +2303,19 @@
         <v>5558196</v>
       </c>
       <c r="Q30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2329,7 +2332,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>0.021</v>
@@ -2359,19 +2362,19 @@
         <v>5558196</v>
       </c>
       <c r="Q31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2388,19 +2391,19 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32">
         <v>120</v>
       </c>
       <c r="G32">
-        <v>751.230654023315</v>
+        <v>842.009379051354</v>
       </c>
       <c r="H32">
-        <v>10291.5390997255</v>
+        <v>12709.9531747287</v>
       </c>
       <c r="I32">
-        <v>4112.25</v>
+        <v>4112.08</v>
       </c>
       <c r="J32">
         <v>20.7547169811321</v>
@@ -2409,13 +2412,13 @@
         <v>24.5283018867925</v>
       </c>
       <c r="L32">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M32">
-        <v>677.27</v>
+        <v>676.968</v>
       </c>
       <c r="N32">
-        <v>2994.78</v>
+        <v>2994.632</v>
       </c>
       <c r="O32">
         <v>1785275</v>
@@ -2424,19 +2427,19 @@
         <v>5558196</v>
       </c>
       <c r="Q32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2453,19 +2456,19 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33">
         <v>120</v>
       </c>
       <c r="G33">
-        <v>751.230654023315</v>
+        <v>842.009379051354</v>
       </c>
       <c r="H33">
-        <v>10291.5390997255</v>
+        <v>12709.9531747287</v>
       </c>
       <c r="I33">
-        <v>4112.25</v>
+        <v>4112.08</v>
       </c>
       <c r="J33">
         <v>20.7547169811321</v>
@@ -2474,13 +2477,13 @@
         <v>24.5283018867925</v>
       </c>
       <c r="L33">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M33">
-        <v>677.27</v>
+        <v>676.968</v>
       </c>
       <c r="N33">
-        <v>2994.78</v>
+        <v>2994.632</v>
       </c>
       <c r="O33">
         <v>1785275</v>
@@ -2489,19 +2492,19 @@
         <v>5558196</v>
       </c>
       <c r="Q33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2518,19 +2521,19 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>120</v>
       </c>
       <c r="G34">
-        <v>751.230654023315</v>
+        <v>842.009379051354</v>
       </c>
       <c r="H34">
-        <v>10291.5390997255</v>
+        <v>12709.9531747287</v>
       </c>
       <c r="I34">
-        <v>4112.25</v>
+        <v>4112.08</v>
       </c>
       <c r="J34">
         <v>20.7547169811321</v>
@@ -2539,13 +2542,13 @@
         <v>24.5283018867925</v>
       </c>
       <c r="L34">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M34">
-        <v>677.27</v>
+        <v>676.968</v>
       </c>
       <c r="N34">
-        <v>2994.78</v>
+        <v>2994.632</v>
       </c>
       <c r="O34">
         <v>1785275</v>
@@ -2554,19 +2557,19 @@
         <v>5558196</v>
       </c>
       <c r="Q34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2583,19 +2586,19 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35">
         <v>120</v>
       </c>
       <c r="G35">
-        <v>751.230654023315</v>
+        <v>842.009379051354</v>
       </c>
       <c r="H35">
-        <v>10291.5390997255</v>
+        <v>12709.9531747287</v>
       </c>
       <c r="I35">
-        <v>4112.25</v>
+        <v>4112.08</v>
       </c>
       <c r="J35">
         <v>20.7547169811321</v>
@@ -2604,13 +2607,13 @@
         <v>24.5283018867925</v>
       </c>
       <c r="L35">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M35">
-        <v>677.27</v>
+        <v>676.968</v>
       </c>
       <c r="N35">
-        <v>2994.78</v>
+        <v>2994.632</v>
       </c>
       <c r="O35">
         <v>1785275</v>
@@ -2619,19 +2622,19 @@
         <v>5558196</v>
       </c>
       <c r="Q35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2648,13 +2651,13 @@
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36">
         <v>0.01137</v>
       </c>
       <c r="G36">
-        <v>0.0736703165436941</v>
+        <v>0.0735714912343399</v>
       </c>
       <c r="H36">
         <v>1.7508335155888</v>
@@ -2663,7 +2666,7 @@
         <v>0.36227</v>
       </c>
       <c r="L36">
-        <v>0.00685</v>
+        <v>0.00542</v>
       </c>
       <c r="M36">
         <v>0.04769</v>
@@ -2678,19 +2681,19 @@
         <v>5558196</v>
       </c>
       <c r="Q36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2707,13 +2710,13 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>0.01137</v>
       </c>
       <c r="G37">
-        <v>0.0736703165436941</v>
+        <v>0.0735714912343399</v>
       </c>
       <c r="H37">
         <v>1.7508335155888</v>
@@ -2722,7 +2725,7 @@
         <v>0.36227</v>
       </c>
       <c r="L37">
-        <v>0.00685</v>
+        <v>0.00542</v>
       </c>
       <c r="M37">
         <v>0.04769</v>
@@ -2737,19 +2740,19 @@
         <v>5558196</v>
       </c>
       <c r="Q37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2766,13 +2769,13 @@
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38">
         <v>0.623</v>
       </c>
       <c r="G38">
-        <v>0.784254571293116</v>
+        <v>0.784288947839047</v>
       </c>
       <c r="H38">
         <v>2.28</v>
@@ -2781,7 +2784,7 @@
         <v>1.9515</v>
       </c>
       <c r="L38">
-        <v>0.1255</v>
+        <v>0.212</v>
       </c>
       <c r="M38">
         <v>1.3798</v>
@@ -2796,19 +2799,19 @@
         <v>5558196</v>
       </c>
       <c r="Q38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2825,13 +2828,13 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39">
         <v>0.623</v>
       </c>
       <c r="G39">
-        <v>0.784254571293116</v>
+        <v>0.784288947839047</v>
       </c>
       <c r="H39">
         <v>2.28</v>
@@ -2840,7 +2843,7 @@
         <v>1.9515</v>
       </c>
       <c r="L39">
-        <v>0.1255</v>
+        <v>0.212</v>
       </c>
       <c r="M39">
         <v>1.3798</v>
@@ -2855,19 +2858,19 @@
         <v>5558196</v>
       </c>
       <c r="Q39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2881,7 +2884,7 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40">
         <v>0.73</v>
@@ -2896,7 +2899,7 @@
         <v>2.348</v>
       </c>
       <c r="L40">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="M40">
         <v>1.7049</v>
@@ -2911,19 +2914,19 @@
         <v>5558196</v>
       </c>
       <c r="Q40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2937,7 +2940,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41">
         <v>0.73</v>
@@ -2952,7 +2955,7 @@
         <v>2.348</v>
       </c>
       <c r="L41">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="M41">
         <v>1.7049</v>
@@ -2967,19 +2970,19 @@
         <v>5558196</v>
       </c>
       <c r="Q41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2993,7 +2996,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42">
         <v>1.64</v>
@@ -3008,7 +3011,7 @@
         <v>3.61</v>
       </c>
       <c r="L42">
-        <v>0.93</v>
+        <v>1.16</v>
       </c>
       <c r="M42">
         <v>2.4794</v>
@@ -3023,19 +3026,19 @@
         <v>5558196</v>
       </c>
       <c r="Q42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3049,7 +3052,7 @@
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43">
         <v>1.64</v>
@@ -3064,7 +3067,7 @@
         <v>3.61</v>
       </c>
       <c r="L43">
-        <v>0.93</v>
+        <v>1.16</v>
       </c>
       <c r="M43">
         <v>2.4794</v>
@@ -3079,19 +3082,19 @@
         <v>5558196</v>
       </c>
       <c r="Q43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3105,7 +3108,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44">
         <v>0.04</v>
@@ -3120,7 +3123,7 @@
         <v>0.5016</v>
       </c>
       <c r="L44">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="M44">
         <v>0.13435</v>
@@ -3135,19 +3138,19 @@
         <v>5558196</v>
       </c>
       <c r="Q44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3161,7 +3164,7 @@
         <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45">
         <v>0.04</v>
@@ -3176,7 +3179,7 @@
         <v>0.5016</v>
       </c>
       <c r="L45">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="M45">
         <v>0.13435</v>
@@ -3191,19 +3194,969 @@
         <v>5558196</v>
       </c>
       <c r="Q45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46">
+        <v>0.02</v>
+      </c>
+      <c r="G46">
+        <v>0.02792</v>
+      </c>
+      <c r="H46">
+        <v>0.127</v>
+      </c>
+      <c r="I46">
+        <v>0.126</v>
+      </c>
+      <c r="L46">
+        <v>0.021</v>
+      </c>
+      <c r="M46">
+        <v>0.028</v>
+      </c>
+      <c r="N46">
+        <v>0.0635</v>
+      </c>
+      <c r="O46">
+        <v>1785275</v>
+      </c>
+      <c r="P46">
+        <v>5558196</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>48</v>
+      </c>
+      <c r="R46" t="s">
+        <v>49</v>
+      </c>
+      <c r="S46" t="s">
+        <v>50</v>
+      </c>
+      <c r="T46" t="s">
+        <v>51</v>
+      </c>
+      <c r="U46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47">
+        <v>0.02</v>
+      </c>
+      <c r="G47">
+        <v>0.02792</v>
+      </c>
+      <c r="H47">
+        <v>0.127</v>
+      </c>
+      <c r="I47">
+        <v>0.126</v>
+      </c>
+      <c r="L47">
+        <v>0.021</v>
+      </c>
+      <c r="M47">
+        <v>0.028</v>
+      </c>
+      <c r="N47">
+        <v>0.0635</v>
+      </c>
+      <c r="O47">
+        <v>1785275</v>
+      </c>
+      <c r="P47">
+        <v>5558196</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>48</v>
+      </c>
+      <c r="R47" t="s">
+        <v>49</v>
+      </c>
+      <c r="S47" t="s">
+        <v>50</v>
+      </c>
+      <c r="T47" t="s">
+        <v>51</v>
+      </c>
+      <c r="U47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48">
+        <v>138.2</v>
+      </c>
+      <c r="G48">
+        <v>1058.80194179443</v>
+      </c>
+      <c r="H48">
+        <v>12709.9531747287</v>
+      </c>
+      <c r="I48">
+        <v>7945.2</v>
+      </c>
+      <c r="J48">
+        <v>24</v>
+      </c>
+      <c r="K48">
+        <v>30</v>
+      </c>
+      <c r="L48">
+        <v>133.2</v>
+      </c>
+      <c r="M48">
+        <v>693.2</v>
+      </c>
+      <c r="N48">
+        <v>3942.4</v>
+      </c>
+      <c r="O48">
+        <v>1785275</v>
+      </c>
+      <c r="P48">
+        <v>5558196</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>48</v>
+      </c>
+      <c r="R48" t="s">
+        <v>49</v>
+      </c>
+      <c r="S48" t="s">
+        <v>50</v>
+      </c>
+      <c r="T48" t="s">
+        <v>51</v>
+      </c>
+      <c r="U48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49">
+        <v>138.2</v>
+      </c>
+      <c r="G49">
+        <v>1058.80194179443</v>
+      </c>
+      <c r="H49">
+        <v>12709.9531747287</v>
+      </c>
+      <c r="I49">
+        <v>7945.2</v>
+      </c>
+      <c r="J49">
+        <v>24</v>
+      </c>
+      <c r="K49">
+        <v>30</v>
+      </c>
+      <c r="L49">
+        <v>133.2</v>
+      </c>
+      <c r="M49">
+        <v>693.2</v>
+      </c>
+      <c r="N49">
+        <v>3942.4</v>
+      </c>
+      <c r="O49">
+        <v>1785275</v>
+      </c>
+      <c r="P49">
+        <v>5558196</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>48</v>
+      </c>
+      <c r="R49" t="s">
+        <v>49</v>
+      </c>
+      <c r="S49" t="s">
+        <v>50</v>
+      </c>
+      <c r="T49" t="s">
+        <v>51</v>
+      </c>
+      <c r="U49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50">
+        <v>138.2</v>
+      </c>
+      <c r="G50">
+        <v>1058.80194179443</v>
+      </c>
+      <c r="H50">
+        <v>12709.9531747287</v>
+      </c>
+      <c r="I50">
+        <v>7945.2</v>
+      </c>
+      <c r="J50">
+        <v>24</v>
+      </c>
+      <c r="K50">
+        <v>30</v>
+      </c>
+      <c r="L50">
+        <v>133.2</v>
+      </c>
+      <c r="M50">
+        <v>693.2</v>
+      </c>
+      <c r="N50">
+        <v>3942.4</v>
+      </c>
+      <c r="O50">
+        <v>1785275</v>
+      </c>
+      <c r="P50">
+        <v>5558196</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>48</v>
+      </c>
+      <c r="R50" t="s">
+        <v>49</v>
+      </c>
+      <c r="S50" t="s">
+        <v>50</v>
+      </c>
+      <c r="T50" t="s">
+        <v>51</v>
+      </c>
+      <c r="U50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51">
+        <v>138.2</v>
+      </c>
+      <c r="G51">
+        <v>1058.80194179443</v>
+      </c>
+      <c r="H51">
+        <v>12709.9531747287</v>
+      </c>
+      <c r="I51">
+        <v>7945.2</v>
+      </c>
+      <c r="J51">
+        <v>24</v>
+      </c>
+      <c r="K51">
+        <v>30</v>
+      </c>
+      <c r="L51">
+        <v>133.2</v>
+      </c>
+      <c r="M51">
+        <v>693.2</v>
+      </c>
+      <c r="N51">
+        <v>3942.4</v>
+      </c>
+      <c r="O51">
+        <v>1785275</v>
+      </c>
+      <c r="P51">
+        <v>5558196</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>48</v>
+      </c>
+      <c r="R51" t="s">
+        <v>49</v>
+      </c>
+      <c r="S51" t="s">
+        <v>50</v>
+      </c>
+      <c r="T51" t="s">
+        <v>51</v>
+      </c>
+      <c r="U51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52">
+        <v>0.01418</v>
+      </c>
+      <c r="G52">
+        <v>0.0821277858275926</v>
+      </c>
+      <c r="H52">
+        <v>1.7508335155888</v>
+      </c>
+      <c r="I52">
+        <v>0.39232</v>
+      </c>
+      <c r="L52">
+        <v>0.0068</v>
+      </c>
+      <c r="M52">
+        <v>0.06195</v>
+      </c>
+      <c r="N52">
+        <v>0.19688</v>
+      </c>
+      <c r="O52">
+        <v>1785275</v>
+      </c>
+      <c r="P52">
+        <v>5558196</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>48</v>
+      </c>
+      <c r="R52" t="s">
+        <v>49</v>
+      </c>
+      <c r="S52" t="s">
+        <v>50</v>
+      </c>
+      <c r="T52" t="s">
+        <v>51</v>
+      </c>
+      <c r="U52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <v>0.01418</v>
+      </c>
+      <c r="G53">
+        <v>0.0821277858275926</v>
+      </c>
+      <c r="H53">
+        <v>1.7508335155888</v>
+      </c>
+      <c r="I53">
+        <v>0.39232</v>
+      </c>
+      <c r="L53">
+        <v>0.0068</v>
+      </c>
+      <c r="M53">
+        <v>0.06195</v>
+      </c>
+      <c r="N53">
+        <v>0.19688</v>
+      </c>
+      <c r="O53">
+        <v>1785275</v>
+      </c>
+      <c r="P53">
+        <v>5558196</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>48</v>
+      </c>
+      <c r="R53" t="s">
+        <v>49</v>
+      </c>
+      <c r="S53" t="s">
+        <v>50</v>
+      </c>
+      <c r="T53" t="s">
+        <v>51</v>
+      </c>
+      <c r="U53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54">
+        <v>0.607</v>
+      </c>
+      <c r="G54">
+        <v>0.80568628470939</v>
+      </c>
+      <c r="H54">
+        <v>2.28</v>
+      </c>
+      <c r="I54">
+        <v>2.06</v>
+      </c>
+      <c r="L54">
+        <v>0.1985</v>
+      </c>
+      <c r="M54">
+        <v>1.52</v>
+      </c>
+      <c r="N54">
+        <v>1.865</v>
+      </c>
+      <c r="O54">
+        <v>1785275</v>
+      </c>
+      <c r="P54">
+        <v>5558196</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>48</v>
+      </c>
+      <c r="R54" t="s">
+        <v>49</v>
+      </c>
+      <c r="S54" t="s">
+        <v>50</v>
+      </c>
+      <c r="T54" t="s">
+        <v>51</v>
+      </c>
+      <c r="U54" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55">
+        <v>0.607</v>
+      </c>
+      <c r="G55">
+        <v>0.80568628470939</v>
+      </c>
+      <c r="H55">
+        <v>2.28</v>
+      </c>
+      <c r="I55">
+        <v>2.06</v>
+      </c>
+      <c r="L55">
+        <v>0.1985</v>
+      </c>
+      <c r="M55">
+        <v>1.52</v>
+      </c>
+      <c r="N55">
+        <v>1.865</v>
+      </c>
+      <c r="O55">
+        <v>1785275</v>
+      </c>
+      <c r="P55">
+        <v>5558196</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>48</v>
+      </c>
+      <c r="R55" t="s">
+        <v>49</v>
+      </c>
+      <c r="S55" t="s">
+        <v>50</v>
+      </c>
+      <c r="T55" t="s">
+        <v>51</v>
+      </c>
+      <c r="U55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56">
+        <v>0.73</v>
+      </c>
+      <c r="G56">
+        <v>0.9756</v>
+      </c>
+      <c r="H56">
+        <v>4.75</v>
+      </c>
+      <c r="I56">
+        <v>2.41</v>
+      </c>
+      <c r="L56">
+        <v>0.215</v>
+      </c>
+      <c r="M56">
+        <v>1.71</v>
+      </c>
+      <c r="N56">
+        <v>2.25</v>
+      </c>
+      <c r="O56">
+        <v>1785275</v>
+      </c>
+      <c r="P56">
+        <v>5558196</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>48</v>
+      </c>
+      <c r="R56" t="s">
+        <v>49</v>
+      </c>
+      <c r="S56" t="s">
+        <v>50</v>
+      </c>
+      <c r="T56" t="s">
+        <v>51</v>
+      </c>
+      <c r="U56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57">
+        <v>0.73</v>
+      </c>
+      <c r="G57">
+        <v>0.9756</v>
+      </c>
+      <c r="H57">
+        <v>4.75</v>
+      </c>
+      <c r="I57">
+        <v>2.41</v>
+      </c>
+      <c r="L57">
+        <v>0.215</v>
+      </c>
+      <c r="M57">
+        <v>1.71</v>
+      </c>
+      <c r="N57">
+        <v>2.25</v>
+      </c>
+      <c r="O57">
+        <v>1785275</v>
+      </c>
+      <c r="P57">
+        <v>5558196</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>48</v>
+      </c>
+      <c r="R57" t="s">
+        <v>49</v>
+      </c>
+      <c r="S57" t="s">
+        <v>50</v>
+      </c>
+      <c r="T57" t="s">
+        <v>51</v>
+      </c>
+      <c r="U57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58">
+        <v>1.7</v>
+      </c>
+      <c r="G58">
+        <v>1.88206</v>
+      </c>
+      <c r="H58">
+        <v>6.97</v>
+      </c>
+      <c r="I58">
+        <v>3.67</v>
+      </c>
+      <c r="L58">
+        <v>1.14</v>
+      </c>
+      <c r="M58">
+        <v>2.51</v>
+      </c>
+      <c r="N58">
+        <v>3.385</v>
+      </c>
+      <c r="O58">
+        <v>1785275</v>
+      </c>
+      <c r="P58">
+        <v>5558196</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>48</v>
+      </c>
+      <c r="R58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S58" t="s">
+        <v>50</v>
+      </c>
+      <c r="T58" t="s">
+        <v>51</v>
+      </c>
+      <c r="U58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59">
+        <v>1.7</v>
+      </c>
+      <c r="G59">
+        <v>1.88206</v>
+      </c>
+      <c r="H59">
+        <v>6.97</v>
+      </c>
+      <c r="I59">
+        <v>3.67</v>
+      </c>
+      <c r="L59">
+        <v>1.14</v>
+      </c>
+      <c r="M59">
+        <v>2.51</v>
+      </c>
+      <c r="N59">
+        <v>3.385</v>
+      </c>
+      <c r="O59">
+        <v>1785275</v>
+      </c>
+      <c r="P59">
+        <v>5558196</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>48</v>
+      </c>
+      <c r="R59" t="s">
+        <v>49</v>
+      </c>
+      <c r="S59" t="s">
+        <v>50</v>
+      </c>
+      <c r="T59" t="s">
+        <v>51</v>
+      </c>
+      <c r="U59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60">
+        <v>0.045</v>
+      </c>
+      <c r="G60">
+        <v>0.34296</v>
+      </c>
+      <c r="H60">
+        <v>12.2</v>
+      </c>
+      <c r="I60">
+        <v>0.507</v>
+      </c>
+      <c r="L60">
+        <v>0.0345</v>
+      </c>
+      <c r="M60">
+        <v>0.151</v>
+      </c>
+      <c r="N60">
+        <v>0.429</v>
+      </c>
+      <c r="O60">
+        <v>1785275</v>
+      </c>
+      <c r="P60">
+        <v>5558196</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>48</v>
+      </c>
+      <c r="R60" t="s">
+        <v>49</v>
+      </c>
+      <c r="S60" t="s">
+        <v>50</v>
+      </c>
+      <c r="T60" t="s">
+        <v>51</v>
+      </c>
+      <c r="U60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61">
+        <v>0.045</v>
+      </c>
+      <c r="G61">
+        <v>0.34296</v>
+      </c>
+      <c r="H61">
+        <v>12.2</v>
+      </c>
+      <c r="I61">
+        <v>0.507</v>
+      </c>
+      <c r="L61">
+        <v>0.0345</v>
+      </c>
+      <c r="M61">
+        <v>0.151</v>
+      </c>
+      <c r="N61">
+        <v>0.429</v>
+      </c>
+      <c r="O61">
+        <v>1785275</v>
+      </c>
+      <c r="P61">
+        <v>5558196</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>48</v>
+      </c>
+      <c r="R61" t="s">
+        <v>49</v>
+      </c>
+      <c r="S61" t="s">
+        <v>50</v>
+      </c>
+      <c r="T61" t="s">
+        <v>51</v>
+      </c>
+      <c r="U61" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
